--- a/pabi_account_report/xlsx_template/xlsx_report_gl_project.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t xml:space="preserve">Project Report</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">Activity</t>
   </si>
   <si>
+    <t xml:space="preserve">Charge Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Budget View</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Run Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge Type</t>
   </si>
   <si>
     <t xml:space="preserve">Fund Rule - Expense Group</t>
@@ -434,7 +434,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ21"/>
+  <dimension ref="A1:BJ22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -726,10 +726,10 @@
       <c r="BE12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -852,6 +852,10 @@
       <c r="BE19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -866,190 +870,204 @@
       <c r="BE20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BE21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="R22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="S21" s="12" t="s">
+      <c r="S22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="12" t="s">
+      <c r="T22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="U21" s="12" t="s">
+      <c r="U22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="V21" s="12" t="s">
+      <c r="V22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="W21" s="12" t="s">
+      <c r="W22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="X21" s="12" t="s">
+      <c r="X22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Y21" s="12" t="s">
+      <c r="Y22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Z21" s="12" t="s">
+      <c r="Z22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AA21" s="12" t="s">
+      <c r="AA22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AB21" s="12" t="s">
+      <c r="AB22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AC21" s="12" t="s">
+      <c r="AC22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AD21" s="12" t="s">
+      <c r="AD22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AE21" s="12" t="s">
+      <c r="AE22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AF21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG21" s="12" t="s">
+      <c r="AF22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AH21" s="12" t="s">
+      <c r="AH22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI21" s="12" t="s">
+      <c r="AI22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AJ21" s="12" t="s">
+      <c r="AJ22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AK21" s="12" t="s">
+      <c r="AK22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AL21" s="12" t="s">
+      <c r="AL22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AM21" s="12" t="s">
+      <c r="AM22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AN21" s="12" t="s">
+      <c r="AN22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AO21" s="12" t="s">
+      <c r="AO22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AP21" s="12" t="s">
+      <c r="AP22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AQ21" s="12" t="s">
+      <c r="AQ22" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AR21" s="12" t="s">
+      <c r="AR22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AS21" s="12" t="s">
+      <c r="AS22" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AT21" s="12" t="s">
+      <c r="AT22" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AU21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV21" s="12" t="s">
+      <c r="AU22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV22" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AW21" s="12" t="s">
+      <c r="AW22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AX21" s="12" t="s">
+      <c r="AX22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AY21" s="12" t="s">
+      <c r="AY22" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AZ21" s="12" t="s">
+      <c r="AZ22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BA21" s="12" t="s">
+      <c r="BA22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BB21" s="12" t="s">
+      <c r="BB22" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BC21" s="12" t="s">
+      <c r="BC22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BD21" s="12" t="s">
+      <c r="BD22" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BE21" s="12" t="s">
+      <c r="BE22" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="BF21" s="12" t="s">
+      <c r="BF22" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BG21" s="12" t="s">
+      <c r="BG22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BH21" s="12" t="s">
+      <c r="BH22" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="BI21" s="12" t="s">
+      <c r="BI22" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="BJ21" s="13" t="s">
+      <c r="BJ22" s="13" t="s">
         <v>79</v>
       </c>
     </row>

--- a/pabi_account_report/xlsx_template/xlsx_report_gl_project.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t xml:space="preserve">Project Report</t>
   </si>
@@ -172,7 +172,10 @@
     <t xml:space="preserve">Clearing Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Source Doc/Reference</t>
+    <t xml:space="preserve">Source Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
   </si>
   <si>
     <t xml:space="preserve">Source of Budget Type</t>
@@ -260,6 +263,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reconcile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial Reconcile</t>
   </si>
 </sst>
 </file>
@@ -269,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -305,6 +311,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -360,7 +372,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,6 +422,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -434,7 +450,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ22"/>
+  <dimension ref="A1:BL22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -472,36 +488,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="49" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="63" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="34.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="51" min="50" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="53" min="52" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="25.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="65" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,11 +529,11 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AY1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AW1" s="3"/>
       <c r="AZ1" s="3"/>
-      <c r="BE1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BF1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -529,11 +546,11 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AD2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AY2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AW2" s="3"/>
       <c r="AZ2" s="3"/>
-      <c r="BE2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BF2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -550,11 +567,11 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AD3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AY3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AW3" s="3"/>
       <c r="AZ3" s="3"/>
-      <c r="BE3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BF3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -568,11 +585,11 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AD4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AY4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AW4" s="3"/>
       <c r="AZ4" s="3"/>
-      <c r="BE4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BF4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -589,11 +606,11 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AY5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AW5" s="3"/>
       <c r="AZ5" s="3"/>
-      <c r="BE5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BF5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -610,30 +627,30 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AY6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AW6" s="3"/>
       <c r="AZ6" s="3"/>
-      <c r="BE6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BF6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="1"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AD7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AY7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AW7" s="3"/>
       <c r="AZ7" s="3"/>
-      <c r="BE7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BF7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -647,11 +664,11 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AD8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AY8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AW8" s="3"/>
       <c r="AZ8" s="3"/>
-      <c r="BE8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BF8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
@@ -665,11 +682,11 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AD9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AY9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AW9" s="3"/>
       <c r="AZ9" s="3"/>
-      <c r="BE9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BF9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -683,11 +700,11 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AD10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AY10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AW10" s="3"/>
       <c r="AZ10" s="3"/>
-      <c r="BE10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BF10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -701,11 +718,11 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AY11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AW11" s="3"/>
       <c r="AZ11" s="3"/>
-      <c r="BE11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BF11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -719,11 +736,11 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AY12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AW12" s="3"/>
       <c r="AZ12" s="3"/>
-      <c r="BE12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BF12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -737,11 +754,11 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AY13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AW13" s="3"/>
       <c r="AZ13" s="3"/>
-      <c r="BE13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BF13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
@@ -755,11 +772,11 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AD14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AY14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AW14" s="3"/>
       <c r="AZ14" s="3"/>
-      <c r="BE14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BF14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
@@ -773,11 +790,11 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AD15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AY15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AW15" s="3"/>
       <c r="AZ15" s="3"/>
-      <c r="BE15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BF15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
@@ -791,11 +808,11 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AD16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AY16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AW16" s="3"/>
       <c r="AZ16" s="3"/>
-      <c r="BE16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BF16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
@@ -809,11 +826,11 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AD17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AY17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AW17" s="3"/>
       <c r="AZ17" s="3"/>
-      <c r="BE17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BF17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
@@ -827,11 +844,11 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AD18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AY18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AW18" s="3"/>
       <c r="AZ18" s="3"/>
-      <c r="BE18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BF18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
@@ -845,11 +862,11 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AD19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AY19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AW19" s="3"/>
       <c r="AZ19" s="3"/>
-      <c r="BE19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BF19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
@@ -863,11 +880,11 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AD20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AY20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AW20" s="3"/>
       <c r="AZ20" s="3"/>
-      <c r="BE20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BF20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="3"/>
@@ -877,11 +894,11 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AD21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AY21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AW21" s="3"/>
       <c r="AZ21" s="3"/>
-      <c r="BE21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BF21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
@@ -977,11 +994,11 @@
       <c r="AE22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AF22" s="12" t="s">
+      <c r="AF22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG22" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="AG22" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="AH22" s="12" t="s">
         <v>52</v>
@@ -1023,10 +1040,10 @@
         <v>64</v>
       </c>
       <c r="AU22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV22" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="AV22" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="AW22" s="12" t="s">
         <v>66</v>
@@ -1067,8 +1084,14 @@
       <c r="BI22" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="BJ22" s="13" t="s">
+      <c r="BJ22" s="12" t="s">
         <v>79</v>
+      </c>
+      <c r="BK22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL22" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/pabi_account_report/xlsx_template/xlsx_report_gl_project.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t xml:space="preserve">Project Report</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Run Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noted for base amount, vat amount and wht amount</t>
   </si>
   <si>
     <t xml:space="preserve">Fund Rule - Expense Group</t>
@@ -275,7 +278,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -311,14 +314,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +332,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -421,11 +424,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,6 +445,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -450,7 +513,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL22"/>
+  <dimension ref="A1:BZ22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -518,7 +581,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="25.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="65" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="75" min="65" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="76" min="76" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="77" min="77" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="78" min="78" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="79" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,202 +966,219 @@
       <c r="AZ21" s="3"/>
       <c r="BA21" s="3"/>
       <c r="BF21" s="3"/>
+      <c r="BX21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY21" s="12"/>
+      <c r="BZ21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="F22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="G22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="H22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="I22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="K22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="L22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="M22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="N22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="O22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="P22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="12" t="s">
+      <c r="Q22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S22" s="12" t="s">
+      <c r="R22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T22" s="12" t="s">
+      <c r="S22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="12" t="s">
+      <c r="T22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V22" s="12" t="s">
+      <c r="U22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="W22" s="12" t="s">
+      <c r="V22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="X22" s="12" t="s">
+      <c r="W22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Y22" s="12" t="s">
+      <c r="X22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Z22" s="12" t="s">
+      <c r="Y22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AA22" s="12" t="s">
+      <c r="Z22" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AB22" s="12" t="s">
+      <c r="AA22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="12" t="s">
+      <c r="AB22" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AD22" s="12" t="s">
+      <c r="AC22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AE22" s="12" t="s">
+      <c r="AD22" s="13" t="s">
         <v>50</v>
       </c>
+      <c r="AE22" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="AF22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AH22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI22" s="12" t="s">
+      <c r="AH22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AJ22" s="12" t="s">
+      <c r="AI22" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AK22" s="12" t="s">
+      <c r="AJ22" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AL22" s="12" t="s">
+      <c r="AK22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AM22" s="12" t="s">
+      <c r="AL22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN22" s="12" t="s">
+      <c r="AM22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO22" s="12" t="s">
+      <c r="AN22" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AP22" s="12" t="s">
+      <c r="AO22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ22" s="12" t="s">
+      <c r="AP22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AR22" s="12" t="s">
+      <c r="AQ22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AS22" s="12" t="s">
+      <c r="AR22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AT22" s="12" t="s">
+      <c r="AS22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AU22" s="12" t="s">
+      <c r="AT22" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AV22" s="12" t="s">
+      <c r="AU22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AW22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX22" s="12" t="s">
+      <c r="AW22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AY22" s="12" t="s">
+      <c r="AX22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AZ22" s="12" t="s">
+      <c r="AY22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="BA22" s="12" t="s">
+      <c r="AZ22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BB22" s="12" t="s">
+      <c r="BA22" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="BC22" s="12" t="s">
+      <c r="BB22" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="BD22" s="12" t="s">
+      <c r="BC22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="BE22" s="12" t="s">
+      <c r="BD22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="BF22" s="12" t="s">
+      <c r="BE22" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="BG22" s="12" t="s">
+      <c r="BF22" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="BH22" s="12" t="s">
+      <c r="BG22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="BI22" s="12" t="s">
+      <c r="BH22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BJ22" s="12" t="s">
+      <c r="BI22" s="13" t="s">
         <v>79</v>
       </c>
+      <c r="BJ22" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="BK22" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BL22" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="BX22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ22" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="BX21:BZ21"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/pabi_account_report/xlsx_template/xlsx_report_gl_project.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_project.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KT\pee por\#3370\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Report" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Project Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,265 +27,268 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
-  <si>
-    <t xml:space="preserve">Project Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscal Year From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscal Year To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investment Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project (C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noted for base amount, vat amount and wht amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund Rule - Expense Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Group Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Group Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscal Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund Rule - Fund Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund Rule - Lock Amount </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHT Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doc Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doc Journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posting Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clearing Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clearing Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Budget Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Budget Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Budget Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Plan Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Plan Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section Program Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Order Group Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Order Group Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Order Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Order Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Center Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Center Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posted By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Bank Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Bank Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment Export</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reconcile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partial Reconcile</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+  <si>
+    <t>Project Report</t>
+  </si>
+  <si>
+    <t>Fiscal Year From</t>
+  </si>
+  <si>
+    <t>Fiscal Year To</t>
+  </si>
+  <si>
+    <t>Filter by</t>
+  </si>
+  <si>
+    <t>Period From</t>
+  </si>
+  <si>
+    <t>Period To</t>
+  </si>
+  <si>
+    <t>Date From</t>
+  </si>
+  <si>
+    <t>Date To</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Account Code</t>
+  </si>
+  <si>
+    <t>Activity Group</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Charge Type</t>
+  </si>
+  <si>
+    <t>Budget View</t>
+  </si>
+  <si>
+    <t>Org</t>
+  </si>
+  <si>
+    <t>Investment Asset</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Source of Fund</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Project (C)</t>
+  </si>
+  <si>
+    <t>Run By</t>
+  </si>
+  <si>
+    <t>Run Date</t>
+  </si>
+  <si>
+    <t>Noted for base amount, vat amount and wht amount</t>
+  </si>
+  <si>
+    <t>Fund Rule - Expense Group</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Activity Group Code</t>
+  </si>
+  <si>
+    <t>Activity Group Name</t>
+  </si>
+  <si>
+    <t>Activity Code</t>
+  </si>
+  <si>
+    <t>Activity Name</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>Group Period</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Tax Code</t>
+  </si>
+  <si>
+    <t>Fund Rule - Fund Amount</t>
+  </si>
+  <si>
+    <t>Fund Rule - Lock Amount </t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>VAT Amount</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Base Amount</t>
+  </si>
+  <si>
+    <t>WHT Amount</t>
+  </si>
+  <si>
+    <t>Line Description</t>
+  </si>
+  <si>
+    <t>Header Description</t>
+  </si>
+  <si>
+    <t>Doc Type</t>
+  </si>
+  <si>
+    <t>Doc Journal</t>
+  </si>
+  <si>
+    <t>Document Number</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Document Date</t>
+  </si>
+  <si>
+    <t>Posting Date</t>
+  </si>
+  <si>
+    <t>Clearing Document</t>
+  </si>
+  <si>
+    <t>Clearing Date</t>
+  </si>
+  <si>
+    <t>Source Document</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Source of Budget Type</t>
+  </si>
+  <si>
+    <t>Source of Budget Code</t>
+  </si>
+  <si>
+    <t>Source of Budget Name</t>
+  </si>
+  <si>
+    <t>Master Plan Code</t>
+  </si>
+  <si>
+    <t>Master Plan Name</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>Program Code</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>Section Program Code</t>
+  </si>
+  <si>
+    <t>Section Program</t>
+  </si>
+  <si>
+    <t>Job Order Group Code</t>
+  </si>
+  <si>
+    <t>Job Order Group Name</t>
+  </si>
+  <si>
+    <t>Job Order Code</t>
+  </si>
+  <si>
+    <t>Job Order Name</t>
+  </si>
+  <si>
+    <t>Cost Center Code</t>
+  </si>
+  <si>
+    <t>Cost Center Name</t>
+  </si>
+  <si>
+    <t>Posted By</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Value Date</t>
+  </si>
+  <si>
+    <t>Reverse Document</t>
+  </si>
+  <si>
+    <t>Reverse Date</t>
+  </si>
+  <si>
+    <t>Payment Term</t>
+  </si>
+  <si>
+    <t>Billing Document</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Transfer Type</t>
+  </si>
+  <si>
+    <t>Partner Bank Account</t>
+  </si>
+  <si>
+    <t>Partner Bank Branch</t>
+  </si>
+  <si>
+    <t>Payment Export</t>
+  </si>
+  <si>
+    <t>Reconcile</t>
+  </si>
+  <si>
+    <t>Partial Reconcile</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Asset Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -286,29 +296,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -342,7 +337,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -350,101 +345,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -503,92 +478,368 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:BZ22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BZ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="BI7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BN26" sqref="BN26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="40.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="27.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="51" min="50" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="53" min="52" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="25.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="75" min="65" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="76" min="76" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="77" min="77" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="78" min="78" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="79" style="0" width="11.52"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5703125"/>
+    <col min="14" max="14" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="16" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" style="1"/>
+    <col min="27" max="27" width="18.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.140625" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="25.5703125" customWidth="1"/>
+    <col min="32" max="33" width="24.28515625" customWidth="1"/>
+    <col min="34" max="34" width="23.5703125" customWidth="1"/>
+    <col min="35" max="35" width="22.42578125" customWidth="1"/>
+    <col min="36" max="36" width="24.7109375" customWidth="1"/>
+    <col min="37" max="37" width="22.5703125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="21.28515625" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125"/>
+    <col min="40" max="40" width="19.5703125" customWidth="1"/>
+    <col min="41" max="41" width="34.85546875" customWidth="1"/>
+    <col min="42" max="42" width="25.42578125" customWidth="1"/>
+    <col min="43" max="43" width="20" customWidth="1"/>
+    <col min="44" max="44" width="21.85546875" customWidth="1"/>
+    <col min="45" max="45" width="28.85546875" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" customWidth="1"/>
+    <col min="47" max="47" width="24.5703125" customWidth="1"/>
+    <col min="48" max="48" width="22.85546875" customWidth="1"/>
+    <col min="49" max="49" width="22.85546875" style="1" customWidth="1"/>
+    <col min="50" max="51" width="11.5703125"/>
+    <col min="52" max="53" width="11.5703125" style="1"/>
+    <col min="54" max="54" width="19.42578125" customWidth="1"/>
+    <col min="55" max="55" width="17.5703125" customWidth="1"/>
+    <col min="56" max="56" width="19.85546875" customWidth="1"/>
+    <col min="57" max="57" width="20.7109375" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" style="1" customWidth="1"/>
+    <col min="59" max="59" width="17.85546875" customWidth="1"/>
+    <col min="60" max="60" width="25.140625" customWidth="1"/>
+    <col min="61" max="61" width="22.5703125" customWidth="1"/>
+    <col min="62" max="62" width="20.140625" customWidth="1"/>
+    <col min="63" max="63" width="17.85546875" customWidth="1"/>
+    <col min="64" max="64" width="26" customWidth="1"/>
+    <col min="65" max="65" width="24.140625" customWidth="1"/>
+    <col min="66" max="66" width="35" customWidth="1"/>
+    <col min="67" max="75" width="11.5703125"/>
+    <col min="76" max="76" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="79" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -602,7 +853,7 @@
       <c r="BA1" s="3"/>
       <c r="BF1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -619,7 +870,7 @@
       <c r="BA2" s="3"/>
       <c r="BF2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -640,7 +891,7 @@
       <c r="BA3" s="3"/>
       <c r="BF3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -658,7 +909,7 @@
       <c r="BA4" s="3"/>
       <c r="BF4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -679,7 +930,7 @@
       <c r="BA5" s="3"/>
       <c r="BF5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -700,7 +951,7 @@
       <c r="BA6" s="3"/>
       <c r="BF6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -719,7 +970,7 @@
       <c r="BA7" s="3"/>
       <c r="BF7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -737,7 +988,7 @@
       <c r="BA8" s="3"/>
       <c r="BF8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -755,7 +1006,7 @@
       <c r="BA9" s="3"/>
       <c r="BF9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -773,7 +1024,7 @@
       <c r="BA10" s="3"/>
       <c r="BF10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -791,7 +1042,7 @@
       <c r="BA11" s="3"/>
       <c r="BF11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -809,7 +1060,7 @@
       <c r="BA12" s="3"/>
       <c r="BF12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -827,7 +1078,7 @@
       <c r="BA13" s="3"/>
       <c r="BF13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
@@ -845,7 +1096,7 @@
       <c r="BA14" s="3"/>
       <c r="BF14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>16</v>
       </c>
@@ -863,7 +1114,7 @@
       <c r="BA15" s="3"/>
       <c r="BF15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -881,7 +1132,7 @@
       <c r="BA16" s="3"/>
       <c r="BF16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
@@ -899,7 +1150,7 @@
       <c r="BA17" s="3"/>
       <c r="BF17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
@@ -917,7 +1168,7 @@
       <c r="BA18" s="3"/>
       <c r="BF18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -935,7 +1186,7 @@
       <c r="BA19" s="3"/>
       <c r="BF19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -953,7 +1204,7 @@
       <c r="BA20" s="3"/>
       <c r="BF20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -966,13 +1217,13 @@
       <c r="AZ21" s="3"/>
       <c r="BA21" s="3"/>
       <c r="BF21" s="3"/>
-      <c r="BX21" s="12" t="s">
+      <c r="BX21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="BY21" s="12"/>
-      <c r="BZ21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BY21" s="15"/>
+      <c r="BZ21" s="15"/>
+    </row>
+    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>12</v>
       </c>
@@ -1165,6 +1416,12 @@
       <c r="BL22" s="14" t="s">
         <v>82</v>
       </c>
+      <c r="BM22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN22" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="BX22" s="12" t="s">
         <v>37</v>
       </c>
@@ -1174,15 +1431,18 @@
       <c r="BZ22" s="12" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BM23" s="16"/>
+      <c r="BN23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="BX21:BZ21"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/pabi_account_report/xlsx_template/xlsx_report_gl_project.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_project.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KT\pee por\#3370\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Report" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Project Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,265 +27,268 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
-  <si>
-    <t xml:space="preserve">Project Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscal Year From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscal Year To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investment Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project (C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noted for base amount, vat amount and wht amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund Rule - Expense Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Group Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Group Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscal Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund Rule - Fund Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund Rule - Lock Amount </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHT Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doc Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doc Journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posting Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clearing Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clearing Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Budget Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Budget Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Budget Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Plan Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Plan Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section Program Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Order Group Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Order Group Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Order Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Order Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Center Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Center Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posted By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Bank Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Bank Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment Export</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reconcile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partial Reconcile</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+  <si>
+    <t>Project Report</t>
+  </si>
+  <si>
+    <t>Fiscal Year From</t>
+  </si>
+  <si>
+    <t>Fiscal Year To</t>
+  </si>
+  <si>
+    <t>Filter by</t>
+  </si>
+  <si>
+    <t>Period From</t>
+  </si>
+  <si>
+    <t>Period To</t>
+  </si>
+  <si>
+    <t>Date From</t>
+  </si>
+  <si>
+    <t>Date To</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Account Code</t>
+  </si>
+  <si>
+    <t>Activity Group</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Charge Type</t>
+  </si>
+  <si>
+    <t>Budget View</t>
+  </si>
+  <si>
+    <t>Org</t>
+  </si>
+  <si>
+    <t>Investment Asset</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Source of Fund</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Project (C)</t>
+  </si>
+  <si>
+    <t>Run By</t>
+  </si>
+  <si>
+    <t>Run Date</t>
+  </si>
+  <si>
+    <t>Noted for base amount, vat amount and wht amount</t>
+  </si>
+  <si>
+    <t>Fund Rule - Expense Group</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Activity Group Code</t>
+  </si>
+  <si>
+    <t>Activity Group Name</t>
+  </si>
+  <si>
+    <t>Activity Code</t>
+  </si>
+  <si>
+    <t>Activity Name</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>Group Period</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Tax Code</t>
+  </si>
+  <si>
+    <t>Fund Rule - Fund Amount</t>
+  </si>
+  <si>
+    <t>Fund Rule - Lock Amount </t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>VAT Amount</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Base Amount</t>
+  </si>
+  <si>
+    <t>WHT Amount</t>
+  </si>
+  <si>
+    <t>Line Description</t>
+  </si>
+  <si>
+    <t>Header Description</t>
+  </si>
+  <si>
+    <t>Doc Type</t>
+  </si>
+  <si>
+    <t>Doc Journal</t>
+  </si>
+  <si>
+    <t>Document Number</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Document Date</t>
+  </si>
+  <si>
+    <t>Posting Date</t>
+  </si>
+  <si>
+    <t>Clearing Document</t>
+  </si>
+  <si>
+    <t>Clearing Date</t>
+  </si>
+  <si>
+    <t>Source Document</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Source of Budget Type</t>
+  </si>
+  <si>
+    <t>Source of Budget Code</t>
+  </si>
+  <si>
+    <t>Source of Budget Name</t>
+  </si>
+  <si>
+    <t>Master Plan Code</t>
+  </si>
+  <si>
+    <t>Master Plan Name</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>Program Code</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>Section Program Code</t>
+  </si>
+  <si>
+    <t>Section Program</t>
+  </si>
+  <si>
+    <t>Job Order Group Code</t>
+  </si>
+  <si>
+    <t>Job Order Group Name</t>
+  </si>
+  <si>
+    <t>Job Order Code</t>
+  </si>
+  <si>
+    <t>Job Order Name</t>
+  </si>
+  <si>
+    <t>Cost Center Code</t>
+  </si>
+  <si>
+    <t>Cost Center Name</t>
+  </si>
+  <si>
+    <t>Posted By</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Value Date</t>
+  </si>
+  <si>
+    <t>Reverse Document</t>
+  </si>
+  <si>
+    <t>Reverse Date</t>
+  </si>
+  <si>
+    <t>Payment Term</t>
+  </si>
+  <si>
+    <t>Billing Document</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Transfer Type</t>
+  </si>
+  <si>
+    <t>Partner Bank Account</t>
+  </si>
+  <si>
+    <t>Partner Bank Branch</t>
+  </si>
+  <si>
+    <t>Payment Export</t>
+  </si>
+  <si>
+    <t>Reconcile</t>
+  </si>
+  <si>
+    <t>Partial Reconcile</t>
+  </si>
+  <si>
+    <t>Asset Number</t>
+  </si>
+  <si>
+    <t>Asset Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -286,29 +296,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -342,7 +337,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -350,101 +345,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -503,92 +478,368 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:BZ22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BZ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="BL7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BN22" sqref="BN22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="40.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="27.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="51" min="50" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="53" min="52" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="25.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="75" min="65" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="76" min="76" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="77" min="77" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="78" min="78" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="79" style="0" width="11.52"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5703125"/>
+    <col min="14" max="14" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="16" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" style="1"/>
+    <col min="27" max="27" width="18.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.140625" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="25.5703125" customWidth="1"/>
+    <col min="32" max="33" width="24.28515625" customWidth="1"/>
+    <col min="34" max="34" width="23.5703125" customWidth="1"/>
+    <col min="35" max="35" width="22.42578125" customWidth="1"/>
+    <col min="36" max="36" width="24.7109375" customWidth="1"/>
+    <col min="37" max="37" width="22.5703125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="21.28515625" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125"/>
+    <col min="40" max="40" width="19.5703125" customWidth="1"/>
+    <col min="41" max="41" width="34.85546875" customWidth="1"/>
+    <col min="42" max="42" width="25.42578125" customWidth="1"/>
+    <col min="43" max="43" width="20" customWidth="1"/>
+    <col min="44" max="44" width="21.85546875" customWidth="1"/>
+    <col min="45" max="45" width="28.85546875" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" customWidth="1"/>
+    <col min="47" max="47" width="24.5703125" customWidth="1"/>
+    <col min="48" max="48" width="22.85546875" customWidth="1"/>
+    <col min="49" max="49" width="22.85546875" style="1" customWidth="1"/>
+    <col min="50" max="51" width="11.5703125"/>
+    <col min="52" max="53" width="11.5703125" style="1"/>
+    <col min="54" max="54" width="19.42578125" customWidth="1"/>
+    <col min="55" max="55" width="17.5703125" customWidth="1"/>
+    <col min="56" max="56" width="19.85546875" customWidth="1"/>
+    <col min="57" max="57" width="20.7109375" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" style="1" customWidth="1"/>
+    <col min="59" max="59" width="17.85546875" customWidth="1"/>
+    <col min="60" max="60" width="25.140625" customWidth="1"/>
+    <col min="61" max="61" width="22.5703125" customWidth="1"/>
+    <col min="62" max="62" width="20.140625" customWidth="1"/>
+    <col min="63" max="63" width="17.85546875" customWidth="1"/>
+    <col min="64" max="64" width="26" customWidth="1"/>
+    <col min="65" max="65" width="24.140625" customWidth="1"/>
+    <col min="66" max="66" width="35" customWidth="1"/>
+    <col min="67" max="75" width="11.5703125"/>
+    <col min="76" max="76" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="79" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -602,7 +853,7 @@
       <c r="BA1" s="3"/>
       <c r="BF1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -619,7 +870,7 @@
       <c r="BA2" s="3"/>
       <c r="BF2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -640,7 +891,7 @@
       <c r="BA3" s="3"/>
       <c r="BF3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -658,7 +909,7 @@
       <c r="BA4" s="3"/>
       <c r="BF4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -679,7 +930,7 @@
       <c r="BA5" s="3"/>
       <c r="BF5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -700,7 +951,7 @@
       <c r="BA6" s="3"/>
       <c r="BF6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -719,7 +970,7 @@
       <c r="BA7" s="3"/>
       <c r="BF7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -737,7 +988,7 @@
       <c r="BA8" s="3"/>
       <c r="BF8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -755,7 +1006,7 @@
       <c r="BA9" s="3"/>
       <c r="BF9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -773,7 +1024,7 @@
       <c r="BA10" s="3"/>
       <c r="BF10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -791,7 +1042,7 @@
       <c r="BA11" s="3"/>
       <c r="BF11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -809,7 +1060,7 @@
       <c r="BA12" s="3"/>
       <c r="BF12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -827,7 +1078,7 @@
       <c r="BA13" s="3"/>
       <c r="BF13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
@@ -845,7 +1096,7 @@
       <c r="BA14" s="3"/>
       <c r="BF14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>16</v>
       </c>
@@ -863,7 +1114,7 @@
       <c r="BA15" s="3"/>
       <c r="BF15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -881,7 +1132,7 @@
       <c r="BA16" s="3"/>
       <c r="BF16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
@@ -899,7 +1150,7 @@
       <c r="BA17" s="3"/>
       <c r="BF17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
@@ -917,7 +1168,7 @@
       <c r="BA18" s="3"/>
       <c r="BF18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -935,7 +1186,7 @@
       <c r="BA19" s="3"/>
       <c r="BF19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -953,7 +1204,7 @@
       <c r="BA20" s="3"/>
       <c r="BF20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -966,13 +1217,13 @@
       <c r="AZ21" s="3"/>
       <c r="BA21" s="3"/>
       <c r="BF21" s="3"/>
-      <c r="BX21" s="12" t="s">
+      <c r="BX21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="BY21" s="12"/>
-      <c r="BZ21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BY21" s="16"/>
+      <c r="BZ21" s="16"/>
+    </row>
+    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>12</v>
       </c>
@@ -1165,6 +1416,12 @@
       <c r="BL22" s="14" t="s">
         <v>82</v>
       </c>
+      <c r="BM22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN22" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="BX22" s="12" t="s">
         <v>37</v>
       </c>
@@ -1174,15 +1431,18 @@
       <c r="BZ22" s="12" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BM23" s="15"/>
+      <c r="BN23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="BX21:BZ21"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
